--- a/state_results/Contact_Recreation/LakeWilliam_e66a7ded34.xlsx
+++ b/state_results/Contact_Recreation/LakeWilliam_e66a7ded34.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2018 - 2022</t>
